--- a/tests/OSPSuite.Presentation.Tests/Data/IntegrationSampleMissingColumn.xlsx
+++ b/tests/OSPSuite.Presentation.Tests/Data/IntegrationSampleMissingColumn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgiosDaskalakis\Documents\GitHub\OSPSuite.Core\tests\OSPSuite.Presentation.Tests\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C32804C8-672A-4585-AD02-17A0D21948F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D4CDE49-373F-466C-AF42-187B3CBA082F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -392,7 +392,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -420,7 +420,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
@@ -462,7 +462,7 @@
         <v>0.76855899999999999</v>
       </c>
       <c r="C5" s="2">
-        <v>5582554</v>
+        <v>0</v>
       </c>
       <c r="G5" s="2">
         <v>0.1919004</v>
